--- a/Code/SampleRun_Environment_Solar/900Scens/900_Naive_CI.xlsx
+++ b/Code/SampleRun_Environment_Solar/900Scens/900_Naive_CI.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\A_Uni\HiWi\ArticleSubgradient\Code\SampleRun_Environment_Solar\900Scens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1253E89-684F-4885-AF27-E01CC6645A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB1B41C-AEFA-4E3E-B2CF-86106C4B99B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8905,11 +8905,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9487,8 +9487,8 @@
         <v>9</v>
       </c>
       <c r="M19" s="4">
-        <f>AVERAGE(D42:D45,D47:D57,D59:D61)</f>
-        <v>0.64121055555555551</v>
+        <f>AVERAGE(D42:D61)</f>
+        <v>0.6770894999999999</v>
       </c>
       <c r="O19" t="s">
         <v>10</v>
@@ -9533,11 +9533,11 @@
       </c>
       <c r="P20">
         <f>M19-1.96*M23/(SQRT(20))</f>
-        <v>0.46525703047780642</v>
+        <v>0.50362752255688992</v>
       </c>
       <c r="Q20">
         <f>M19+1.96*M23/(SQRT(20))</f>
-        <v>0.81716408063330459</v>
+        <v>0.85055147744310988</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -9624,8 +9624,8 @@
         <v>12</v>
       </c>
       <c r="M23">
-        <f>_xlfn.STDEV.P(D42:D45,D47:D57,D59:D61)</f>
-        <v>0.40147351321893965</v>
+        <f>_xlfn.STDEV.P(D42:D61)</f>
+        <v>0.39578854395339708</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">

--- a/Code/SampleRun_Environment_Solar/900Scens/900_Naive_CI.xlsx
+++ b/Code/SampleRun_Environment_Solar/900Scens/900_Naive_CI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\A_Uni\HiWi\ArticleSubgradient\Code\SampleRun_Environment_Solar\900Scens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB1B41C-AEFA-4E3E-B2CF-86106C4B99B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAF6D7A-64AE-4123-9EFD-A067EB6A90E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
   <si>
     <t>Instance</t>
   </si>
@@ -82,12 +82,15 @@
   <si>
     <t>Time:</t>
   </si>
+  <si>
+    <t>t dist 95%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +100,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -138,10 +148,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -149,8 +160,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8906,15 +8920,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="20" max="20" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8936,8 +8953,11 @@
       <c r="L1" s="3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8969,8 +8989,14 @@
       <c r="Q2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
@@ -9007,8 +9033,19 @@
         <f>M2+1.96*M6/(SQRT(20))</f>
         <v>240.40050367510042</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <f>M2+(-$H$10)*M6/(SQRT(20))</f>
+        <v>234.41517419230044</v>
+      </c>
+      <c r="U3">
+        <f>M2+$H$10*M6/(SQRT(20))</f>
+        <v>240.59694780769954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>11</v>
       </c>
@@ -9045,8 +9082,19 @@
         <f>M3+1.96*M7/(SQRT(20))</f>
         <v>0.32249350238734259</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4">
+        <f>M3+(-$H$10)*M7/(SQRT(20))</f>
+        <v>8.1643576952123903E-2</v>
+      </c>
+      <c r="U4">
+        <f>M3+$H$10*M7/(SQRT(20))</f>
+        <v>0.33039842304787614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>12</v>
       </c>
@@ -9079,8 +9127,19 @@
         <f>M4+1.96*M8/(SQRT(20))</f>
         <v>4251.4290348162067</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5">
+        <f>M4+(-$H$10)*M8/(SQRT(20))</f>
+        <v>4250.1282729584791</v>
+      </c>
+      <c r="U5">
+        <f>M4+$H$10*M8/(SQRT(20))</f>
+        <v>4251.4717270415213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>13</v>
       </c>
@@ -9107,7 +9166,7 @@
         <v>6.6042556923478504</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>14</v>
       </c>
@@ -9134,7 +9193,7 @@
         <v>0.26575554372204546</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>15</v>
       </c>
@@ -9161,7 +9220,7 @@
         <v>1.4352700094407325</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>16</v>
       </c>
@@ -9184,7 +9243,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>17</v>
       </c>
@@ -9202,6 +9261,13 @@
       </c>
       <c r="F10" s="1">
         <v>4248</v>
+      </c>
+      <c r="H10">
+        <f>_xlfn.T.INV(0.975,19)</f>
+        <v>2.0930240544083087</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.95</v>
       </c>
       <c r="L10" t="s">
         <v>6</v>
@@ -9217,7 +9283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>18</v>
       </c>
@@ -9235,6 +9301,13 @@
       </c>
       <c r="F11" s="1">
         <v>4253</v>
+      </c>
+      <c r="H11">
+        <f>_xlfn.T.INV(0.9875,19)</f>
+        <v>2.4334402113749714</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.97499999999999998</v>
       </c>
       <c r="L11" t="s">
         <v>9</v>
@@ -9254,8 +9327,19 @@
         <f>M10+1.96*M14/(SQRT(20))</f>
         <v>239.42817721385293</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <f>M10+(-$H$10)*M14/(SQRT(20))</f>
+        <v>233.81205125997207</v>
+      </c>
+      <c r="U11">
+        <f>M10+$H$10*M14/(SQRT(20))</f>
+        <v>239.61250374002799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>19</v>
       </c>
@@ -9292,8 +9376,19 @@
         <f>M11+1.96*M15/(SQRT(20))</f>
         <v>0.52648395050749008</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12">
+        <f>M11+(-$H$10)*M15/(SQRT(20))</f>
+        <v>0.19414848760654932</v>
+      </c>
+      <c r="U12">
+        <f>M11+$H$10*M15/(SQRT(20))</f>
+        <v>0.53739151239345062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -9326,8 +9421,19 @@
         <f>M12+1.96*M16/(SQRT(20))</f>
         <v>4252.7197147565885</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S13" t="s">
+        <v>14</v>
+      </c>
+      <c r="T13">
+        <f>M12+(-$H$10)*M16/(SQRT(20))</f>
+        <v>4244.3040760815702</v>
+      </c>
+      <c r="U13">
+        <f>M12+$H$10*M16/(SQRT(20))</f>
+        <v>4252.9959239184291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>20</v>
       </c>
@@ -9354,7 +9460,7 @@
         <v>6.1968738573952535</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3</v>
       </c>
@@ -9381,7 +9487,7 @@
         <v>0.3667013451706988</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4</v>
       </c>
@@ -9408,7 +9514,7 @@
         <v>9.2858763722117228</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>5</v>
       </c>
@@ -9431,7 +9537,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6</v>
       </c>
@@ -9464,7 +9570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>7</v>
       </c>
@@ -9501,8 +9607,19 @@
         <f>M18+1.96*M22/(SQRT(20))</f>
         <v>239.99880026256477</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S19" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <f>M18+(-$H$10)*M22/(SQRT(20))</f>
+        <v>234.08188916031639</v>
+      </c>
+      <c r="U19">
+        <f>M18+$H$10*M22/(SQRT(20))</f>
+        <v>240.19299883968364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>8</v>
       </c>
@@ -9539,8 +9656,19 @@
         <f>M19+1.96*M23/(SQRT(20))</f>
         <v>0.85055147744310988</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S20" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="5">
+        <f>M19+(-$H$10)*M23/(SQRT(20))</f>
+        <v>0.4918547595338465</v>
+      </c>
+      <c r="U20" s="5">
+        <f>M19+$H$10*M23/(SQRT(20))</f>
+        <v>0.8623242404661533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>9</v>
       </c>
@@ -9573,8 +9701,19 @@
         <f>M20+1.96*M24/(SQRT(20))</f>
         <v>4251.2342453376405</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S21" t="s">
+        <v>14</v>
+      </c>
+      <c r="T21">
+        <f>M20+(-$H$10)*M24/(SQRT(20))</f>
+        <v>4237.5154923089149</v>
+      </c>
+      <c r="U21">
+        <f>M20+$H$10*M24/(SQRT(20))</f>
+        <v>4251.6845076910859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -9601,7 +9740,7 @@
         <v>6.528762358101571</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>10</v>
       </c>
@@ -9628,7 +9767,7 @@
         <v>0.39578854395339708</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>11</v>
       </c>
@@ -9655,7 +9794,7 @@
         <v>15.137370973851437</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>12</v>
       </c>
@@ -9678,7 +9817,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>13</v>
       </c>
@@ -9711,7 +9850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>14</v>
       </c>
@@ -9748,8 +9887,19 @@
         <f>M26+1.96*M30/(SQRT(20))</f>
         <v>240.51048317781212</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S27" t="s">
+        <v>10</v>
+      </c>
+      <c r="T27">
+        <f>M26+(-$H$10)*M30/(SQRT(20))</f>
+        <v>235.03453092859368</v>
+      </c>
+      <c r="U27">
+        <f>M26+$H$10*M30/(SQRT(20))</f>
+        <v>240.69020907140631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>15</v>
       </c>
@@ -9786,8 +9936,19 @@
         <f>M27+1.96*M31/(SQRT(20))</f>
         <v>0.97457784446389883</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S28" t="s">
+        <v>12</v>
+      </c>
+      <c r="T28">
+        <f>M27+(-$H$10)*M31/(SQRT(20))</f>
+        <v>0.67785610093264159</v>
+      </c>
+      <c r="U28">
+        <f>M27+$H$10*M31/(SQRT(20))</f>
+        <v>0.98431653064630598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>16</v>
       </c>
@@ -9820,8 +9981,19 @@
         <f>M28+1.96*M32/(SQRT(20))</f>
         <v>4249.4293967634549</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S29" t="s">
+        <v>14</v>
+      </c>
+      <c r="T29">
+        <f>M28+(-$H$10)*M32/(SQRT(20))</f>
+        <v>4235.5138830114438</v>
+      </c>
+      <c r="U29">
+        <f>M28+$H$10*M32/(SQRT(20))</f>
+        <v>4249.8861169885558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>17</v>
       </c>
@@ -9848,7 +10020,7 @@
         <v>6.0422051813274233</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>18</v>
       </c>
@@ -9875,7 +10047,7 @@
         <v>0.32740491052181087</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>19</v>
       </c>
